--- a/data-coyuntura.xlsx
+++ b/data-coyuntura.xlsx
@@ -3139,10 +3139,10 @@
         <v>122.400405131745</v>
       </c>
       <c r="C226" t="n">
-        <v>172.63</v>
+        <v>172.33</v>
       </c>
       <c r="D226" t="n">
-        <v>150.18</v>
+        <v>150.13</v>
       </c>
     </row>
   </sheetData>

--- a/data-coyuntura.xlsx
+++ b/data-coyuntura.xlsx
@@ -3024,7 +3024,7 @@
         <v>45658</v>
       </c>
       <c r="B218" t="n">
-        <v>125.564037857299</v>
+        <v>125.595860670832</v>
       </c>
       <c r="C218" t="n">
         <v>166.73675194087</v>
@@ -3038,7 +3038,7 @@
         <v>45689</v>
       </c>
       <c r="B219" t="n">
-        <v>130.359541551331</v>
+        <v>130.344813000994</v>
       </c>
       <c r="C219" t="n">
         <v>167.49</v>
@@ -3052,7 +3052,7 @@
         <v>45717</v>
       </c>
       <c r="B220" t="n">
-        <v>126.145067209026</v>
+        <v>126.12797294583</v>
       </c>
       <c r="C220" t="n">
         <v>168.66</v>
@@ -3066,7 +3066,7 @@
         <v>45748</v>
       </c>
       <c r="B221" t="n">
-        <v>122.858572228484</v>
+        <v>122.845678576047</v>
       </c>
       <c r="C221" t="n">
         <v>168.34</v>
@@ -3080,7 +3080,7 @@
         <v>45778</v>
       </c>
       <c r="B222" t="n">
-        <v>132.934353305527</v>
+        <v>132.913461098593</v>
       </c>
       <c r="C222" t="n">
         <v>166.71</v>
@@ -3094,7 +3094,7 @@
         <v>45809</v>
       </c>
       <c r="B223" t="n">
-        <v>124.768049344444</v>
+        <v>124.801835203815</v>
       </c>
       <c r="C223" t="n">
         <v>167.09</v>
@@ -3108,7 +3108,7 @@
         <v>45839</v>
       </c>
       <c r="B224" t="n">
-        <v>126.331072037793</v>
+        <v>126.289707999204</v>
       </c>
       <c r="C224" t="n">
         <v>168.68</v>
@@ -3122,7 +3122,7 @@
         <v>45870</v>
       </c>
       <c r="B225" t="n">
-        <v>125.806462143234</v>
+        <v>125.764151973952</v>
       </c>
       <c r="C225" t="n">
         <v>170.617268455147</v>
@@ -3136,13 +3136,27 @@
         <v>45901</v>
       </c>
       <c r="B226" t="n">
-        <v>122.400405131745</v>
+        <v>122.484079339617</v>
       </c>
       <c r="C226" t="n">
         <v>172.33</v>
       </c>
       <c r="D226" t="n">
         <v>150.13</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B227" t="n">
+        <v>123.176380654678</v>
+      </c>
+      <c r="C227" t="n">
+        <v>172.26</v>
+      </c>
+      <c r="D227" t="n">
+        <v>149.92</v>
       </c>
     </row>
   </sheetData>
